--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/EquipNameSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/EquipNameSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.257.54764"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>eng_Name</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>LeftHandCane</t>
+  </si>
+  <si>
+    <t>lo_ko</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1615,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:18">
